--- a/database/insert文/ユーザー.xlsx
+++ b/database/insert文/ユーザー.xlsx
@@ -63,23 +63,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>111@111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gcID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋秀瑛</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takasyue1023sw@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +493,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -519,23 +525,23 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$C$1,$D$1,D3,$D$1,$C$1,E3,$C$1,F3,$C$1,$D$1,G3,$D$1,$B$1)</f>
-        <v>INSERT INTO user VALUES (4171204,1,"aaaa","aaaa",1,2,"111@111");</v>
+        <v>INSERT INTO user VALUES (4171204,1,"高橋秀瑛","password",2,0,"takasyue1023sw@gmail.com");</v>
       </c>
     </row>
   </sheetData>
@@ -544,5 +550,6 @@
     <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/insert文/ユーザー.xlsx
+++ b/database/insert文/ユーザー.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>INSERT INTO user VALUES (</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,46 @@
   </si>
   <si>
     <t>takasyue1023sw@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敦賀俊毅</t>
+    <rPh sb="0" eb="2">
+      <t>ツルガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タケシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toshturu113@gmail.com</t>
+  </si>
+  <si>
+    <t>ymhtmthr8969@gmail.com</t>
+  </si>
+  <si>
+    <t>山端基治</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマハタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モトイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -469,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -542,6 +582,60 @@
       <c r="H3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$C$1,$D$1,D3,$D$1,$C$1,E3,$C$1,F3,$C$1,$D$1,G3,$D$1,$B$1)</f>
         <v>INSERT INTO user VALUES (4171204,1,"高橋秀瑛","password",2,0,"takasyue1023sw@gmail.com");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4171205</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE($A$1,A4,$C$1,B4,$C$1,$D$1,C4,$D$1,$C$1,$D$1,D4,$D$1,$C$1,E4,$C$1,F4,$C$1,$D$1,G4,$D$1,$B$1)</f>
+        <v>INSERT INTO user VALUES (4171205,1,"敦賀俊毅","password",2,1,"toshturu113@gmail.com");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4171113</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE($A$1,A5,$C$1,B5,$C$1,$D$1,C5,$D$1,$C$1,$D$1,D5,$D$1,$C$1,E5,$C$1,F5,$C$1,$D$1,G5,$D$1,$B$1)</f>
+        <v>INSERT INTO user VALUES (4171113,1,"山端基治","password",2,2,"ymhtmthr8969@gmail.com");</v>
       </c>
     </row>
   </sheetData>
